--- a/tests/data/test_input_spreadsheet.xlsx
+++ b/tests/data/test_input_spreadsheet.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">en:Updated ipsum</t>
   </si>
   <si>
-    <t xml:space="preserve">es:en:Updated ipsum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de:en:Updated ipsum</t>
+    <t xml:space="preserve">es:Updated ipsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de:Updated ipsum</t>
   </si>
   <si>
     <t xml:space="preserve">prj.info.newmsgid</t>
@@ -168,7 +168,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
